--- a/DESP/uploads/user/TableUser_Import.xlsx
+++ b/DESP/uploads/user/TableUser_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\中科院年报\desp_0706\DESP-qzc\DESP\uploads\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DESP\DESP\uploads\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFC1CF5-738C-4C99-B4C5-FB2766E67FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CA2C7D-B1BD-496C-9ED8-147E4198573D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="48" windowWidth="19992" windowHeight="12312" xr2:uid="{1D21F6B0-494E-4379-A1D7-91F69F81BF6E}"/>
+    <workbookView xWindow="3312" yWindow="4212" windowWidth="19992" windowHeight="12312" xr2:uid="{1D21F6B0-494E-4379-A1D7-91F69F81BF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,85 +31,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work_Field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nationality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bachelor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IdentityID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Org_Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>User_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Real_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Work_Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Bachelor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Identity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,20 +454,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CA7E9F-6433-46B0-96E0-C470F38D2D73}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -496,52 +476,37 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
